--- a/medicine/Œil et vue/Silmäasema/Silmäasema.xlsx
+++ b/medicine/Œil et vue/Silmäasema/Silmäasema.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Silm%C3%A4asema</t>
+          <t>Silmäasema</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Silmäasema Oyj est une société finlandaise spécialisée en produits et services d'ophtalmologie et d'optique en Finlande.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Silm%C3%A4asema</t>
+          <t>Silmäasema</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chaîne Silmäasema comprend 150 magasins Silmäasema et 13 cliniques ophtalmologiques en Finlande, ainsi que 9 magasins Tallinn Optika en Estonie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chaîne Silmäasema comprend 150 magasins Silmäasema et 13 cliniques ophtalmologiques en Finlande, ainsi que 9 magasins Tallinn Optika en Estonie.
 Selon le concept de la chaîne Silmäasema, chaque magasin de la chaîne offre des services d'ophtalmologiste et d'opticien.
-Silmäasema est un partenaire national du groupe S[3].
+Silmäasema est un partenaire national du groupe S.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Silm%C3%A4asema</t>
+          <t>Silmäasema</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Actionnaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au 29 février 2020, les plus grands actionnaires de Silmäasema sont[4]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au 29 février 2020, les plus grands actionnaires de Silmäasema sont:
 </t>
         </is>
       </c>
